--- a/mysite/web/download_excel/员工满意度调查-人数.xlsx
+++ b/mysite/web/download_excel/员工满意度调查-人数.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="18" uniqueCount="18">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="148" uniqueCount="148">
   <si>
     <t>id</t>
   </si>
@@ -68,6 +68,396 @@
   </si>
   <si>
     <t>员工就其工作对分行办公室负责人有何评价？</t>
+  </si>
+  <si>
+    <t>员工对现有的工作流程帮助员工能够尽量发挥生产力水平有何评价？</t>
+  </si>
+  <si>
+    <t>员工对分行职能部门的经营管理系统运行有何评价？</t>
+  </si>
+  <si>
+    <t>员工对分行职能部门业务流程及其优化有何评价？</t>
+  </si>
+  <si>
+    <t>员工对分行信息技术的运用体现于工作效益方面有何评价？</t>
+  </si>
+  <si>
+    <t>员工对分行专家支持系统运用效益有何评价？</t>
+  </si>
+  <si>
+    <t>员工对分行会计业务系统运用效益有何评价？</t>
+  </si>
+  <si>
+    <t>员工对分行核心信贷业务系统运用效益有何评价？</t>
+  </si>
+  <si>
+    <t>员工对分行中小信贷业务系统运用效益有何评价？</t>
+  </si>
+  <si>
+    <t>员工对分行国际业务系统运用效益有何评价？</t>
+  </si>
+  <si>
+    <t>员工就其工作对信息技术部负责人有何评价？</t>
+  </si>
+  <si>
+    <t>员工对分行管理的连续性和稳定性有何评价？</t>
+  </si>
+  <si>
+    <t>员工对上级的上级经常直接干扰自己的工作运用效益有何评价？</t>
+  </si>
+  <si>
+    <t>员工对目前分行的组织管理决策与实施有何评价？</t>
+  </si>
+  <si>
+    <t>员工对各计划项目执行时有冲突有何评价？</t>
+  </si>
+  <si>
+    <t>员工对机构/部门或个人工作延误时间有何评价？</t>
+  </si>
+  <si>
+    <t>员工对分行现有的用人机制明确合理有何评价？</t>
+  </si>
+  <si>
+    <t>员工对分行现有的用人机制、规章制度和工作流程有何评价？</t>
+  </si>
+  <si>
+    <t>员工对分行现有的用人机制存在问题，需重新设计和完善有何评价？</t>
+  </si>
+  <si>
+    <t>员工对优化问题处理机制有何评价？</t>
+  </si>
+  <si>
+    <t>员工对分行奖励与约束机制有何评价？</t>
+  </si>
+  <si>
+    <t>员工对分行业务工作流程优化有何评价？</t>
+  </si>
+  <si>
+    <t>员工对分行创新工作流程清晰有何评价？</t>
+  </si>
+  <si>
+    <t>员工对分行管理流程复杂影响工作效率有何评价？</t>
+  </si>
+  <si>
+    <t>员工对分行人力资源管理流程有何评价？</t>
+  </si>
+  <si>
+    <t>员工对分行各专业条线网上学习系统建设有何评价？</t>
+  </si>
+  <si>
+    <t>员工对分行级经营管理流程有何评价？</t>
+  </si>
+  <si>
+    <t>员工对支行级管理流程有何评价？</t>
+  </si>
+  <si>
+    <t>员工对部门级管理流程有何评价？</t>
+  </si>
+  <si>
+    <t>员工对分行业务管理流程有何评价？</t>
+  </si>
+  <si>
+    <t>员工对分行级领导的管理风格有何评价？</t>
+  </si>
+  <si>
+    <t>员工对分行的工作环境适合员工所从事的工作有何评价？</t>
+  </si>
+  <si>
+    <t>员工对分行一直在改善工作安全环境状况有何评价？</t>
+  </si>
+  <si>
+    <t>员工对分行工作氛围感觉良好，心情舒畅有何评价？</t>
+  </si>
+  <si>
+    <t>员工对工作场所的文化氛围有何评价？</t>
+  </si>
+  <si>
+    <t>员工对分行办公场所与环境设施配置有何评价？</t>
+  </si>
+  <si>
+    <t>员工对分行工作上下协助，员工关系融洽有何评价？</t>
+  </si>
+  <si>
+    <t>员工对分行目前的工作条件有何评价？</t>
+  </si>
+  <si>
+    <t>员工对工作环境舒适性有何评价？</t>
+  </si>
+  <si>
+    <t>员工对工作环境的整洁美观有何评价？</t>
+  </si>
+  <si>
+    <t>员工对分行办公设备的配置有何评价？</t>
+  </si>
+  <si>
+    <t>员工对分行后勤保障与服务支持水平有何评价？</t>
+  </si>
+  <si>
+    <t>员工对分行职能部门服务意识水平有何评价？</t>
+  </si>
+  <si>
+    <t>员工对食堂卫生及饭菜质量有何评价？</t>
+  </si>
+  <si>
+    <t>员工对分行的住宿安排有何评价？</t>
+  </si>
+  <si>
+    <t>员工对分行的休息场所安排有何评价？</t>
+  </si>
+  <si>
+    <t>员工对分行设备维护及保养有何评价？</t>
+  </si>
+  <si>
+    <t>员工对分行固定资产的管理有何评价？</t>
+  </si>
+  <si>
+    <t>员工对职能部门服务意识不强在分行是否比较常见有何评价？</t>
+  </si>
+  <si>
+    <t>员工对分行系统有服务内外部客户的意识有何评价？</t>
+  </si>
+  <si>
+    <t>员工对分行机关部门对基层的服务意识有何评价？</t>
+  </si>
+  <si>
+    <t>员工对分行注重工作的安全与保障有何评价？</t>
+  </si>
+  <si>
+    <t>员工对分行会提醒员工工作环境的安全有何评价？</t>
+  </si>
+  <si>
+    <t>员工对分行员工安全保卫意识有何评价？</t>
+  </si>
+  <si>
+    <t>员工对分行安全组织机构建设有何评价？</t>
+  </si>
+  <si>
+    <t>员工对分行保障职员工作有何评价？</t>
+  </si>
+  <si>
+    <t>员工对所在分行的离职率有何评价？</t>
+  </si>
+  <si>
+    <t>员工对分行安全保卫教育培训有何评价？</t>
+  </si>
+  <si>
+    <t>员工对分行有形数据资料与无形数据资料安全保密有何评价？</t>
+  </si>
+  <si>
+    <t>员工对分行安全保卫设施与装备有何评价？</t>
+  </si>
+  <si>
+    <t>员工对分行人身安全保障有何评价？</t>
+  </si>
+  <si>
+    <t>员工对分行提供适合员工工作类型的社会信息有何评价？</t>
+  </si>
+  <si>
+    <t>员工对分行有定期市场刊物信息提供有何评价？</t>
+  </si>
+  <si>
+    <t>员工对分行就经济、金融、监管相关政策法规料信息发布有何评价？</t>
+  </si>
+  <si>
+    <t>员工对分行内部经营管理信息不定期发布有何评价？</t>
+  </si>
+  <si>
+    <t>员工对分行资产运营状况信息发布有何评价？</t>
+  </si>
+  <si>
+    <t>员工对分行各业务条线经营进展信息通报有何评价？</t>
+  </si>
+  <si>
+    <t>员工对总行级信息管理有何评价？</t>
+  </si>
+  <si>
+    <t>员工对分行级信息管理有何评价？</t>
+  </si>
+  <si>
+    <t>员工对部门级信息管理有何评价？</t>
+  </si>
+  <si>
+    <t>员工就其工作对党办主任有何评价？</t>
+  </si>
+  <si>
+    <t>员工就贡献而言，对薪酬水准公正合理有何评价？</t>
+  </si>
+  <si>
+    <t>员工对分行确定工资调整的原则有何评价？</t>
+  </si>
+  <si>
+    <t>员工对分行现有的薪酬与福利构成有何评价？</t>
+  </si>
+  <si>
+    <t>员工对分行的薪酬调整制度（包括调薪和降薪）有何评价？</t>
+  </si>
+  <si>
+    <t>员工对分行的绩效管理体系有助分行目标实现过程进行监督有何评价？</t>
+  </si>
+  <si>
+    <t>员工对离开银行主要原因是薪酬福利有何评价？</t>
+  </si>
+  <si>
+    <t>员工对分行薪酬体系水平反映工作绩效有何评价？</t>
+  </si>
+  <si>
+    <t>员工对分行薪酬体系提升的空间有何评价？</t>
+  </si>
+  <si>
+    <t>员工对分行薪酬体系竞争优势有何评价？</t>
+  </si>
+  <si>
+    <t>员工对收入水平是假设重新选择工作的比较重要因素有何评价？</t>
+  </si>
+  <si>
+    <t>员工对分行的福利项目水平有何评价？</t>
+  </si>
+  <si>
+    <t>员工对分行奖金的计算与付给有何评价？</t>
+  </si>
+  <si>
+    <t>员工对福利待遇水平有何评价？</t>
+  </si>
+  <si>
+    <t>员工对分行的社会保险有何评价？</t>
+  </si>
+  <si>
+    <t>员工对分行的劳保制度有何评价？</t>
+  </si>
+  <si>
+    <t>员工对银行工作待遇有何评价？</t>
+  </si>
+  <si>
+    <t>员工对最容易产生社会负面影响行员待遇不合理的问题有何评价？</t>
+  </si>
+  <si>
+    <t>员工对购房补贴可以作为分行提供的福利有何评价？</t>
+  </si>
+  <si>
+    <t>员工对带薪休假可以作为分行提供的福利有何评价？</t>
+  </si>
+  <si>
+    <t>员工对培训学习可以作为分行提供的福利有何评价？</t>
+  </si>
+  <si>
+    <t>员工对分行关心员工健康，包括生理和心理有何评价？</t>
+  </si>
+  <si>
+    <t>员工对分行的加班制度有何评价？</t>
+  </si>
+  <si>
+    <t>员工对分行的请假制度有何评价？</t>
+  </si>
+  <si>
+    <t>员工就生日及节假日时，对分行的慰问工作有何评价？</t>
+  </si>
+  <si>
+    <t>员工对分行离退休及供养人员待遇管理办法有何评价？</t>
+  </si>
+  <si>
+    <t>员工对分行医疗保障有何评价？</t>
+  </si>
+  <si>
+    <t>有关对分行节假管理制度有何评价？</t>
+  </si>
+  <si>
+    <t>员工对分行就员工家属的关怀人性化有何评价？</t>
+  </si>
+  <si>
+    <t>员工对分行就离退病在职员工节假日的慰问有何评价？</t>
+  </si>
+  <si>
+    <t>员工就其工作对分行人力资源部负责人有何评价？</t>
+  </si>
+  <si>
+    <t>员工对在分行可以适度地调节自己的工作负荷有何评价？</t>
+  </si>
+  <si>
+    <t>员工对目前的工作压力，就员工来说是可以承受的有何评价？</t>
+  </si>
+  <si>
+    <t>员工对分行的工作节奏有何评价？</t>
+  </si>
+  <si>
+    <t>员工对在工作中是否感到乐趣有何评价？</t>
+  </si>
+  <si>
+    <t>员工对在银行工作是否工作轻松有何评价？</t>
+  </si>
+  <si>
+    <t>员工对准备离开银行，主要原因是工作压力有何评价？</t>
+  </si>
+  <si>
+    <t>员工就工作具有一定的挑战性，对充分运用其知识与技能有何评价？</t>
+  </si>
+  <si>
+    <t>员工对所在部门的工作任务分配有何评价？</t>
+  </si>
+  <si>
+    <t>员工对分行派分的工作任务具有一定的挑战性有何评价？</t>
+  </si>
+  <si>
+    <t>员工对跨部门的工作任务具有一定的压力有何评价？</t>
+  </si>
+  <si>
+    <t>员工对分支行及部门业务指标分配有何评价？</t>
+  </si>
+  <si>
+    <t>员工对分行岗位工作负荷管理制度有何评价？</t>
+  </si>
+  <si>
+    <t>员工对分行部门级工作负荷管理制度有何评价？</t>
+  </si>
+  <si>
+    <t>员工对支行部门级工作负荷管理制度有何评价？</t>
+  </si>
+  <si>
+    <t>员工对支行级工作负荷管理制度有何评价？</t>
+  </si>
+  <si>
+    <t>员工对分行级工作负荷管理制度有何评价？</t>
+  </si>
+  <si>
+    <t>员工对总行工作负荷测量制度有何评价？</t>
+  </si>
+  <si>
+    <t>员工对总行工作负荷管理制度有何评价？</t>
+  </si>
+  <si>
+    <t>员工对总行工作负荷设置制度有何评价？</t>
+  </si>
+  <si>
+    <t>员工对总行工作负荷评估制度有何评价？</t>
+  </si>
+  <si>
+    <t>员工对业余时间常和同事们一起外出活动有何评价？</t>
+  </si>
+  <si>
+    <t>员工对工作总体来说，没有打乱其正常生活有何评价？</t>
+  </si>
+  <si>
+    <t>员工对其体质及健康有何评价？</t>
+  </si>
+  <si>
+    <t>员工对分行女工生活关心制度有何评价？</t>
+  </si>
+  <si>
+    <t>员工对分行组织业余生活娱乐活动有何评价？</t>
+  </si>
+  <si>
+    <t>员工对分行员工与外部客户工作外生活联谊有何评价？</t>
+  </si>
+  <si>
+    <t>员工对分行部门与社会团体工作外生活联谊有何评价？</t>
+  </si>
+  <si>
+    <t>员工对分行员工参与“志愿者”社会生活活动有何评价？</t>
+  </si>
+  <si>
+    <t>员工就其工作对分行团委负责人有何评价？</t>
+  </si>
+  <si>
+    <t>员工就其工作对分行工会负责人有何评价？</t>
   </si>
 </sst>
 </file>
@@ -408,7 +798,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:H11"/>
+  <dimension ref="A1:H141"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -448,22 +838,22 @@
         <v>8</v>
       </c>
       <c r="C2">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="D2">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E2">
         <v>0</v>
       </c>
       <c r="F2">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G2">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H2">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="3" spans="1:8">
@@ -474,22 +864,22 @@
         <v>9</v>
       </c>
       <c r="C3">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="D3">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E3">
         <v>0</v>
       </c>
       <c r="F3">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G3">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H3">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="4" spans="1:8">
@@ -500,7 +890,7 @@
         <v>10</v>
       </c>
       <c r="C4">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="D4">
         <v>0</v>
@@ -512,10 +902,10 @@
         <v>1</v>
       </c>
       <c r="G4">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H4">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="5" spans="1:8">
@@ -526,22 +916,22 @@
         <v>11</v>
       </c>
       <c r="C5">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="D5">
         <v>0</v>
       </c>
       <c r="E5">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F5">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G5">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H5">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="6" spans="1:8">
@@ -552,7 +942,7 @@
         <v>12</v>
       </c>
       <c r="C6">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="D6">
         <v>0</v>
@@ -564,10 +954,10 @@
         <v>1</v>
       </c>
       <c r="G6">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H6">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="7" spans="1:8">
@@ -578,22 +968,22 @@
         <v>13</v>
       </c>
       <c r="C7">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="D7">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E7">
         <v>0</v>
       </c>
       <c r="F7">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G7">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H7">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="8" spans="1:8">
@@ -604,7 +994,7 @@
         <v>14</v>
       </c>
       <c r="C8">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="D8">
         <v>0</v>
@@ -613,10 +1003,10 @@
         <v>0</v>
       </c>
       <c r="F8">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G8">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="H8">
         <v>0</v>
@@ -630,7 +1020,7 @@
         <v>15</v>
       </c>
       <c r="C9">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="D9">
         <v>0</v>
@@ -642,7 +1032,7 @@
         <v>1</v>
       </c>
       <c r="G9">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="H9">
         <v>0</v>
@@ -656,19 +1046,19 @@
         <v>16</v>
       </c>
       <c r="C10">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="D10">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E10">
         <v>0</v>
       </c>
       <c r="F10">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="G10">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H10">
         <v>0</v>
@@ -682,22 +1072,3402 @@
         <v>17</v>
       </c>
       <c r="C11">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="D11">
         <v>0</v>
       </c>
       <c r="E11">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F11">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="G11">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H11">
         <v>0</v>
+      </c>
+    </row>
+    <row r="12" spans="1:8">
+      <c r="A12">
+        <v>10</v>
+      </c>
+      <c r="B12" t="s">
+        <v>18</v>
+      </c>
+      <c r="C12">
+        <v>1</v>
+      </c>
+      <c r="D12">
+        <v>0</v>
+      </c>
+      <c r="E12">
+        <v>0</v>
+      </c>
+      <c r="F12">
+        <v>0</v>
+      </c>
+      <c r="G12">
+        <v>0</v>
+      </c>
+      <c r="H12">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="13" spans="1:8">
+      <c r="A13">
+        <v>11</v>
+      </c>
+      <c r="B13" t="s">
+        <v>19</v>
+      </c>
+      <c r="C13">
+        <v>1</v>
+      </c>
+      <c r="D13">
+        <v>0</v>
+      </c>
+      <c r="E13">
+        <v>0</v>
+      </c>
+      <c r="F13">
+        <v>0</v>
+      </c>
+      <c r="G13">
+        <v>1</v>
+      </c>
+      <c r="H13">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="14" spans="1:8">
+      <c r="A14">
+        <v>12</v>
+      </c>
+      <c r="B14" t="s">
+        <v>20</v>
+      </c>
+      <c r="C14">
+        <v>1</v>
+      </c>
+      <c r="D14">
+        <v>1</v>
+      </c>
+      <c r="E14">
+        <v>0</v>
+      </c>
+      <c r="F14">
+        <v>0</v>
+      </c>
+      <c r="G14">
+        <v>0</v>
+      </c>
+      <c r="H14">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="15" spans="1:8">
+      <c r="A15">
+        <v>13</v>
+      </c>
+      <c r="B15" t="s">
+        <v>21</v>
+      </c>
+      <c r="C15">
+        <v>1</v>
+      </c>
+      <c r="D15">
+        <v>0</v>
+      </c>
+      <c r="E15">
+        <v>1</v>
+      </c>
+      <c r="F15">
+        <v>0</v>
+      </c>
+      <c r="G15">
+        <v>0</v>
+      </c>
+      <c r="H15">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="16" spans="1:8">
+      <c r="A16">
+        <v>14</v>
+      </c>
+      <c r="B16" t="s">
+        <v>22</v>
+      </c>
+      <c r="C16">
+        <v>1</v>
+      </c>
+      <c r="D16">
+        <v>0</v>
+      </c>
+      <c r="E16">
+        <v>0</v>
+      </c>
+      <c r="F16">
+        <v>0</v>
+      </c>
+      <c r="G16">
+        <v>1</v>
+      </c>
+      <c r="H16">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="17" spans="1:8">
+      <c r="A17">
+        <v>15</v>
+      </c>
+      <c r="B17" t="s">
+        <v>23</v>
+      </c>
+      <c r="C17">
+        <v>1</v>
+      </c>
+      <c r="D17">
+        <v>0</v>
+      </c>
+      <c r="E17">
+        <v>0</v>
+      </c>
+      <c r="F17">
+        <v>1</v>
+      </c>
+      <c r="G17">
+        <v>0</v>
+      </c>
+      <c r="H17">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="18" spans="1:8">
+      <c r="A18">
+        <v>16</v>
+      </c>
+      <c r="B18" t="s">
+        <v>24</v>
+      </c>
+      <c r="C18">
+        <v>1</v>
+      </c>
+      <c r="D18">
+        <v>0</v>
+      </c>
+      <c r="E18">
+        <v>0</v>
+      </c>
+      <c r="F18">
+        <v>0</v>
+      </c>
+      <c r="G18">
+        <v>0</v>
+      </c>
+      <c r="H18">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="19" spans="1:8">
+      <c r="A19">
+        <v>17</v>
+      </c>
+      <c r="B19" t="s">
+        <v>25</v>
+      </c>
+      <c r="C19">
+        <v>1</v>
+      </c>
+      <c r="D19">
+        <v>1</v>
+      </c>
+      <c r="E19">
+        <v>0</v>
+      </c>
+      <c r="F19">
+        <v>0</v>
+      </c>
+      <c r="G19">
+        <v>0</v>
+      </c>
+      <c r="H19">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="20" spans="1:8">
+      <c r="A20">
+        <v>18</v>
+      </c>
+      <c r="B20" t="s">
+        <v>26</v>
+      </c>
+      <c r="C20">
+        <v>1</v>
+      </c>
+      <c r="D20">
+        <v>1</v>
+      </c>
+      <c r="E20">
+        <v>0</v>
+      </c>
+      <c r="F20">
+        <v>0</v>
+      </c>
+      <c r="G20">
+        <v>0</v>
+      </c>
+      <c r="H20">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="21" spans="1:8">
+      <c r="A21">
+        <v>19</v>
+      </c>
+      <c r="B21" t="s">
+        <v>27</v>
+      </c>
+      <c r="C21">
+        <v>1</v>
+      </c>
+      <c r="D21">
+        <v>0</v>
+      </c>
+      <c r="E21">
+        <v>0</v>
+      </c>
+      <c r="F21">
+        <v>0</v>
+      </c>
+      <c r="G21">
+        <v>0</v>
+      </c>
+      <c r="H21">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="22" spans="1:8">
+      <c r="A22">
+        <v>20</v>
+      </c>
+      <c r="B22" t="s">
+        <v>28</v>
+      </c>
+      <c r="C22">
+        <v>1</v>
+      </c>
+      <c r="D22">
+        <v>0</v>
+      </c>
+      <c r="E22">
+        <v>0</v>
+      </c>
+      <c r="F22">
+        <v>0</v>
+      </c>
+      <c r="G22">
+        <v>0</v>
+      </c>
+      <c r="H22">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="23" spans="1:8">
+      <c r="A23">
+        <v>21</v>
+      </c>
+      <c r="B23" t="s">
+        <v>29</v>
+      </c>
+      <c r="C23">
+        <v>1</v>
+      </c>
+      <c r="D23">
+        <v>0</v>
+      </c>
+      <c r="E23">
+        <v>0</v>
+      </c>
+      <c r="F23">
+        <v>0</v>
+      </c>
+      <c r="G23">
+        <v>0</v>
+      </c>
+      <c r="H23">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="24" spans="1:8">
+      <c r="A24">
+        <v>22</v>
+      </c>
+      <c r="B24" t="s">
+        <v>30</v>
+      </c>
+      <c r="C24">
+        <v>1</v>
+      </c>
+      <c r="D24">
+        <v>1</v>
+      </c>
+      <c r="E24">
+        <v>0</v>
+      </c>
+      <c r="F24">
+        <v>0</v>
+      </c>
+      <c r="G24">
+        <v>0</v>
+      </c>
+      <c r="H24">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="25" spans="1:8">
+      <c r="A25">
+        <v>23</v>
+      </c>
+      <c r="B25" t="s">
+        <v>31</v>
+      </c>
+      <c r="C25">
+        <v>1</v>
+      </c>
+      <c r="D25">
+        <v>1</v>
+      </c>
+      <c r="E25">
+        <v>0</v>
+      </c>
+      <c r="F25">
+        <v>0</v>
+      </c>
+      <c r="G25">
+        <v>0</v>
+      </c>
+      <c r="H25">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="26" spans="1:8">
+      <c r="A26">
+        <v>24</v>
+      </c>
+      <c r="B26" t="s">
+        <v>32</v>
+      </c>
+      <c r="C26">
+        <v>1</v>
+      </c>
+      <c r="D26">
+        <v>0</v>
+      </c>
+      <c r="E26">
+        <v>1</v>
+      </c>
+      <c r="F26">
+        <v>0</v>
+      </c>
+      <c r="G26">
+        <v>0</v>
+      </c>
+      <c r="H26">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="27" spans="1:8">
+      <c r="A27">
+        <v>25</v>
+      </c>
+      <c r="B27" t="s">
+        <v>33</v>
+      </c>
+      <c r="C27">
+        <v>1</v>
+      </c>
+      <c r="D27">
+        <v>0</v>
+      </c>
+      <c r="E27">
+        <v>0</v>
+      </c>
+      <c r="F27">
+        <v>1</v>
+      </c>
+      <c r="G27">
+        <v>0</v>
+      </c>
+      <c r="H27">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="28" spans="1:8">
+      <c r="A28">
+        <v>26</v>
+      </c>
+      <c r="B28" t="s">
+        <v>34</v>
+      </c>
+      <c r="C28">
+        <v>1</v>
+      </c>
+      <c r="D28">
+        <v>0</v>
+      </c>
+      <c r="E28">
+        <v>0</v>
+      </c>
+      <c r="F28">
+        <v>0</v>
+      </c>
+      <c r="G28">
+        <v>0</v>
+      </c>
+      <c r="H28">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="29" spans="1:8">
+      <c r="A29">
+        <v>27</v>
+      </c>
+      <c r="B29" t="s">
+        <v>35</v>
+      </c>
+      <c r="C29">
+        <v>1</v>
+      </c>
+      <c r="D29">
+        <v>1</v>
+      </c>
+      <c r="E29">
+        <v>0</v>
+      </c>
+      <c r="F29">
+        <v>0</v>
+      </c>
+      <c r="G29">
+        <v>0</v>
+      </c>
+      <c r="H29">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="30" spans="1:8">
+      <c r="A30">
+        <v>28</v>
+      </c>
+      <c r="B30" t="s">
+        <v>36</v>
+      </c>
+      <c r="C30">
+        <v>1</v>
+      </c>
+      <c r="D30">
+        <v>0</v>
+      </c>
+      <c r="E30">
+        <v>0</v>
+      </c>
+      <c r="F30">
+        <v>1</v>
+      </c>
+      <c r="G30">
+        <v>0</v>
+      </c>
+      <c r="H30">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="31" spans="1:8">
+      <c r="A31">
+        <v>29</v>
+      </c>
+      <c r="B31" t="s">
+        <v>37</v>
+      </c>
+      <c r="C31">
+        <v>1</v>
+      </c>
+      <c r="D31">
+        <v>0</v>
+      </c>
+      <c r="E31">
+        <v>1</v>
+      </c>
+      <c r="F31">
+        <v>0</v>
+      </c>
+      <c r="G31">
+        <v>0</v>
+      </c>
+      <c r="H31">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="32" spans="1:8">
+      <c r="A32">
+        <v>30</v>
+      </c>
+      <c r="B32" t="s">
+        <v>38</v>
+      </c>
+      <c r="C32">
+        <v>1</v>
+      </c>
+      <c r="D32">
+        <v>0</v>
+      </c>
+      <c r="E32">
+        <v>0</v>
+      </c>
+      <c r="F32">
+        <v>1</v>
+      </c>
+      <c r="G32">
+        <v>0</v>
+      </c>
+      <c r="H32">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="33" spans="1:8">
+      <c r="A33">
+        <v>31</v>
+      </c>
+      <c r="B33" t="s">
+        <v>39</v>
+      </c>
+      <c r="C33">
+        <v>1</v>
+      </c>
+      <c r="D33">
+        <v>0</v>
+      </c>
+      <c r="E33">
+        <v>0</v>
+      </c>
+      <c r="F33">
+        <v>0</v>
+      </c>
+      <c r="G33">
+        <v>1</v>
+      </c>
+      <c r="H33">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="34" spans="1:8">
+      <c r="A34">
+        <v>32</v>
+      </c>
+      <c r="B34" t="s">
+        <v>40</v>
+      </c>
+      <c r="C34">
+        <v>1</v>
+      </c>
+      <c r="D34">
+        <v>0</v>
+      </c>
+      <c r="E34">
+        <v>0</v>
+      </c>
+      <c r="F34">
+        <v>1</v>
+      </c>
+      <c r="G34">
+        <v>0</v>
+      </c>
+      <c r="H34">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="35" spans="1:8">
+      <c r="A35">
+        <v>33</v>
+      </c>
+      <c r="B35" t="s">
+        <v>41</v>
+      </c>
+      <c r="C35">
+        <v>1</v>
+      </c>
+      <c r="D35">
+        <v>1</v>
+      </c>
+      <c r="E35">
+        <v>0</v>
+      </c>
+      <c r="F35">
+        <v>0</v>
+      </c>
+      <c r="G35">
+        <v>0</v>
+      </c>
+      <c r="H35">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="36" spans="1:8">
+      <c r="A36">
+        <v>34</v>
+      </c>
+      <c r="B36" t="s">
+        <v>42</v>
+      </c>
+      <c r="C36">
+        <v>1</v>
+      </c>
+      <c r="D36">
+        <v>1</v>
+      </c>
+      <c r="E36">
+        <v>0</v>
+      </c>
+      <c r="F36">
+        <v>0</v>
+      </c>
+      <c r="G36">
+        <v>0</v>
+      </c>
+      <c r="H36">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="37" spans="1:8">
+      <c r="A37">
+        <v>35</v>
+      </c>
+      <c r="B37" t="s">
+        <v>43</v>
+      </c>
+      <c r="C37">
+        <v>1</v>
+      </c>
+      <c r="D37">
+        <v>0</v>
+      </c>
+      <c r="E37">
+        <v>0</v>
+      </c>
+      <c r="F37">
+        <v>0</v>
+      </c>
+      <c r="G37">
+        <v>0</v>
+      </c>
+      <c r="H37">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="38" spans="1:8">
+      <c r="A38">
+        <v>36</v>
+      </c>
+      <c r="B38" t="s">
+        <v>44</v>
+      </c>
+      <c r="C38">
+        <v>1</v>
+      </c>
+      <c r="D38">
+        <v>0</v>
+      </c>
+      <c r="E38">
+        <v>0</v>
+      </c>
+      <c r="F38">
+        <v>1</v>
+      </c>
+      <c r="G38">
+        <v>0</v>
+      </c>
+      <c r="H38">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="39" spans="1:8">
+      <c r="A39">
+        <v>37</v>
+      </c>
+      <c r="B39" t="s">
+        <v>45</v>
+      </c>
+      <c r="C39">
+        <v>1</v>
+      </c>
+      <c r="D39">
+        <v>1</v>
+      </c>
+      <c r="E39">
+        <v>0</v>
+      </c>
+      <c r="F39">
+        <v>0</v>
+      </c>
+      <c r="G39">
+        <v>0</v>
+      </c>
+      <c r="H39">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="40" spans="1:8">
+      <c r="A40">
+        <v>38</v>
+      </c>
+      <c r="B40" t="s">
+        <v>46</v>
+      </c>
+      <c r="C40">
+        <v>1</v>
+      </c>
+      <c r="D40">
+        <v>0</v>
+      </c>
+      <c r="E40">
+        <v>0</v>
+      </c>
+      <c r="F40">
+        <v>1</v>
+      </c>
+      <c r="G40">
+        <v>0</v>
+      </c>
+      <c r="H40">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="41" spans="1:8">
+      <c r="A41">
+        <v>39</v>
+      </c>
+      <c r="B41" t="s">
+        <v>47</v>
+      </c>
+      <c r="C41">
+        <v>1</v>
+      </c>
+      <c r="D41">
+        <v>0</v>
+      </c>
+      <c r="E41">
+        <v>0</v>
+      </c>
+      <c r="F41">
+        <v>0</v>
+      </c>
+      <c r="G41">
+        <v>1</v>
+      </c>
+      <c r="H41">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="42" spans="1:8">
+      <c r="A42">
+        <v>40</v>
+      </c>
+      <c r="B42" t="s">
+        <v>48</v>
+      </c>
+      <c r="C42">
+        <v>1</v>
+      </c>
+      <c r="D42">
+        <v>0</v>
+      </c>
+      <c r="E42">
+        <v>1</v>
+      </c>
+      <c r="F42">
+        <v>0</v>
+      </c>
+      <c r="G42">
+        <v>0</v>
+      </c>
+      <c r="H42">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="43" spans="1:8">
+      <c r="A43">
+        <v>41</v>
+      </c>
+      <c r="B43" t="s">
+        <v>49</v>
+      </c>
+      <c r="C43">
+        <v>1</v>
+      </c>
+      <c r="D43">
+        <v>0</v>
+      </c>
+      <c r="E43">
+        <v>0</v>
+      </c>
+      <c r="F43">
+        <v>0</v>
+      </c>
+      <c r="G43">
+        <v>1</v>
+      </c>
+      <c r="H43">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="44" spans="1:8">
+      <c r="A44">
+        <v>42</v>
+      </c>
+      <c r="B44" t="s">
+        <v>50</v>
+      </c>
+      <c r="C44">
+        <v>1</v>
+      </c>
+      <c r="D44">
+        <v>0</v>
+      </c>
+      <c r="E44">
+        <v>0</v>
+      </c>
+      <c r="F44">
+        <v>0</v>
+      </c>
+      <c r="G44">
+        <v>0</v>
+      </c>
+      <c r="H44">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="45" spans="1:8">
+      <c r="A45">
+        <v>43</v>
+      </c>
+      <c r="B45" t="s">
+        <v>51</v>
+      </c>
+      <c r="C45">
+        <v>1</v>
+      </c>
+      <c r="D45">
+        <v>0</v>
+      </c>
+      <c r="E45">
+        <v>1</v>
+      </c>
+      <c r="F45">
+        <v>0</v>
+      </c>
+      <c r="G45">
+        <v>0</v>
+      </c>
+      <c r="H45">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="46" spans="1:8">
+      <c r="A46">
+        <v>44</v>
+      </c>
+      <c r="B46" t="s">
+        <v>52</v>
+      </c>
+      <c r="C46">
+        <v>1</v>
+      </c>
+      <c r="D46">
+        <v>0</v>
+      </c>
+      <c r="E46">
+        <v>0</v>
+      </c>
+      <c r="F46">
+        <v>1</v>
+      </c>
+      <c r="G46">
+        <v>0</v>
+      </c>
+      <c r="H46">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="47" spans="1:8">
+      <c r="A47">
+        <v>45</v>
+      </c>
+      <c r="B47" t="s">
+        <v>53</v>
+      </c>
+      <c r="C47">
+        <v>1</v>
+      </c>
+      <c r="D47">
+        <v>0</v>
+      </c>
+      <c r="E47">
+        <v>0</v>
+      </c>
+      <c r="F47">
+        <v>0</v>
+      </c>
+      <c r="G47">
+        <v>0</v>
+      </c>
+      <c r="H47">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="48" spans="1:8">
+      <c r="A48">
+        <v>46</v>
+      </c>
+      <c r="B48" t="s">
+        <v>54</v>
+      </c>
+      <c r="C48">
+        <v>1</v>
+      </c>
+      <c r="D48">
+        <v>0</v>
+      </c>
+      <c r="E48">
+        <v>1</v>
+      </c>
+      <c r="F48">
+        <v>0</v>
+      </c>
+      <c r="G48">
+        <v>0</v>
+      </c>
+      <c r="H48">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="49" spans="1:8">
+      <c r="A49">
+        <v>47</v>
+      </c>
+      <c r="B49" t="s">
+        <v>55</v>
+      </c>
+      <c r="C49">
+        <v>1</v>
+      </c>
+      <c r="D49">
+        <v>0</v>
+      </c>
+      <c r="E49">
+        <v>0</v>
+      </c>
+      <c r="F49">
+        <v>1</v>
+      </c>
+      <c r="G49">
+        <v>0</v>
+      </c>
+      <c r="H49">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="50" spans="1:8">
+      <c r="A50">
+        <v>48</v>
+      </c>
+      <c r="B50" t="s">
+        <v>56</v>
+      </c>
+      <c r="C50">
+        <v>1</v>
+      </c>
+      <c r="D50">
+        <v>0</v>
+      </c>
+      <c r="E50">
+        <v>0</v>
+      </c>
+      <c r="F50">
+        <v>0</v>
+      </c>
+      <c r="G50">
+        <v>0</v>
+      </c>
+      <c r="H50">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="51" spans="1:8">
+      <c r="A51">
+        <v>49</v>
+      </c>
+      <c r="B51" t="s">
+        <v>57</v>
+      </c>
+      <c r="C51">
+        <v>1</v>
+      </c>
+      <c r="D51">
+        <v>0</v>
+      </c>
+      <c r="E51">
+        <v>0</v>
+      </c>
+      <c r="F51">
+        <v>0</v>
+      </c>
+      <c r="G51">
+        <v>0</v>
+      </c>
+      <c r="H51">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="52" spans="1:8">
+      <c r="A52">
+        <v>50</v>
+      </c>
+      <c r="B52" t="s">
+        <v>58</v>
+      </c>
+      <c r="C52">
+        <v>1</v>
+      </c>
+      <c r="D52">
+        <v>0</v>
+      </c>
+      <c r="E52">
+        <v>0</v>
+      </c>
+      <c r="F52">
+        <v>0</v>
+      </c>
+      <c r="G52">
+        <v>0</v>
+      </c>
+      <c r="H52">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="53" spans="1:8">
+      <c r="A53">
+        <v>51</v>
+      </c>
+      <c r="B53" t="s">
+        <v>59</v>
+      </c>
+      <c r="C53">
+        <v>1</v>
+      </c>
+      <c r="D53">
+        <v>1</v>
+      </c>
+      <c r="E53">
+        <v>0</v>
+      </c>
+      <c r="F53">
+        <v>0</v>
+      </c>
+      <c r="G53">
+        <v>0</v>
+      </c>
+      <c r="H53">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="54" spans="1:8">
+      <c r="A54">
+        <v>52</v>
+      </c>
+      <c r="B54" t="s">
+        <v>60</v>
+      </c>
+      <c r="C54">
+        <v>1</v>
+      </c>
+      <c r="D54">
+        <v>0</v>
+      </c>
+      <c r="E54">
+        <v>0</v>
+      </c>
+      <c r="F54">
+        <v>0</v>
+      </c>
+      <c r="G54">
+        <v>1</v>
+      </c>
+      <c r="H54">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="55" spans="1:8">
+      <c r="A55">
+        <v>53</v>
+      </c>
+      <c r="B55" t="s">
+        <v>61</v>
+      </c>
+      <c r="C55">
+        <v>1</v>
+      </c>
+      <c r="D55">
+        <v>0</v>
+      </c>
+      <c r="E55">
+        <v>0</v>
+      </c>
+      <c r="F55">
+        <v>0</v>
+      </c>
+      <c r="G55">
+        <v>0</v>
+      </c>
+      <c r="H55">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="56" spans="1:8">
+      <c r="A56">
+        <v>54</v>
+      </c>
+      <c r="B56" t="s">
+        <v>62</v>
+      </c>
+      <c r="C56">
+        <v>1</v>
+      </c>
+      <c r="D56">
+        <v>0</v>
+      </c>
+      <c r="E56">
+        <v>0</v>
+      </c>
+      <c r="F56">
+        <v>0</v>
+      </c>
+      <c r="G56">
+        <v>0</v>
+      </c>
+      <c r="H56">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="57" spans="1:8">
+      <c r="A57">
+        <v>55</v>
+      </c>
+      <c r="B57" t="s">
+        <v>63</v>
+      </c>
+      <c r="C57">
+        <v>1</v>
+      </c>
+      <c r="D57">
+        <v>0</v>
+      </c>
+      <c r="E57">
+        <v>0</v>
+      </c>
+      <c r="F57">
+        <v>0</v>
+      </c>
+      <c r="G57">
+        <v>1</v>
+      </c>
+      <c r="H57">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="58" spans="1:8">
+      <c r="A58">
+        <v>56</v>
+      </c>
+      <c r="B58" t="s">
+        <v>64</v>
+      </c>
+      <c r="C58">
+        <v>1</v>
+      </c>
+      <c r="D58">
+        <v>0</v>
+      </c>
+      <c r="E58">
+        <v>0</v>
+      </c>
+      <c r="F58">
+        <v>0</v>
+      </c>
+      <c r="G58">
+        <v>0</v>
+      </c>
+      <c r="H58">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="59" spans="1:8">
+      <c r="A59">
+        <v>57</v>
+      </c>
+      <c r="B59" t="s">
+        <v>65</v>
+      </c>
+      <c r="C59">
+        <v>1</v>
+      </c>
+      <c r="D59">
+        <v>0</v>
+      </c>
+      <c r="E59">
+        <v>0</v>
+      </c>
+      <c r="F59">
+        <v>1</v>
+      </c>
+      <c r="G59">
+        <v>0</v>
+      </c>
+      <c r="H59">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="60" spans="1:8">
+      <c r="A60">
+        <v>58</v>
+      </c>
+      <c r="B60" t="s">
+        <v>66</v>
+      </c>
+      <c r="C60">
+        <v>1</v>
+      </c>
+      <c r="D60">
+        <v>0</v>
+      </c>
+      <c r="E60">
+        <v>1</v>
+      </c>
+      <c r="F60">
+        <v>0</v>
+      </c>
+      <c r="G60">
+        <v>0</v>
+      </c>
+      <c r="H60">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="61" spans="1:8">
+      <c r="A61">
+        <v>59</v>
+      </c>
+      <c r="B61" t="s">
+        <v>67</v>
+      </c>
+      <c r="C61">
+        <v>1</v>
+      </c>
+      <c r="D61">
+        <v>1</v>
+      </c>
+      <c r="E61">
+        <v>0</v>
+      </c>
+      <c r="F61">
+        <v>0</v>
+      </c>
+      <c r="G61">
+        <v>0</v>
+      </c>
+      <c r="H61">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="62" spans="1:8">
+      <c r="A62">
+        <v>60</v>
+      </c>
+      <c r="B62" t="s">
+        <v>68</v>
+      </c>
+      <c r="C62">
+        <v>1</v>
+      </c>
+      <c r="D62">
+        <v>0</v>
+      </c>
+      <c r="E62">
+        <v>1</v>
+      </c>
+      <c r="F62">
+        <v>0</v>
+      </c>
+      <c r="G62">
+        <v>0</v>
+      </c>
+      <c r="H62">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="63" spans="1:8">
+      <c r="A63">
+        <v>61</v>
+      </c>
+      <c r="B63" t="s">
+        <v>69</v>
+      </c>
+      <c r="C63">
+        <v>1</v>
+      </c>
+      <c r="D63">
+        <v>0</v>
+      </c>
+      <c r="E63">
+        <v>1</v>
+      </c>
+      <c r="F63">
+        <v>0</v>
+      </c>
+      <c r="G63">
+        <v>0</v>
+      </c>
+      <c r="H63">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="64" spans="1:8">
+      <c r="A64">
+        <v>62</v>
+      </c>
+      <c r="B64" t="s">
+        <v>70</v>
+      </c>
+      <c r="C64">
+        <v>1</v>
+      </c>
+      <c r="D64">
+        <v>1</v>
+      </c>
+      <c r="E64">
+        <v>0</v>
+      </c>
+      <c r="F64">
+        <v>0</v>
+      </c>
+      <c r="G64">
+        <v>0</v>
+      </c>
+      <c r="H64">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="65" spans="1:8">
+      <c r="A65">
+        <v>63</v>
+      </c>
+      <c r="B65" t="s">
+        <v>71</v>
+      </c>
+      <c r="C65">
+        <v>1</v>
+      </c>
+      <c r="D65">
+        <v>0</v>
+      </c>
+      <c r="E65">
+        <v>0</v>
+      </c>
+      <c r="F65">
+        <v>0</v>
+      </c>
+      <c r="G65">
+        <v>0</v>
+      </c>
+      <c r="H65">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="66" spans="1:8">
+      <c r="A66">
+        <v>64</v>
+      </c>
+      <c r="B66" t="s">
+        <v>72</v>
+      </c>
+      <c r="C66">
+        <v>1</v>
+      </c>
+      <c r="D66">
+        <v>0</v>
+      </c>
+      <c r="E66">
+        <v>0</v>
+      </c>
+      <c r="F66">
+        <v>0</v>
+      </c>
+      <c r="G66">
+        <v>1</v>
+      </c>
+      <c r="H66">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="67" spans="1:8">
+      <c r="A67">
+        <v>65</v>
+      </c>
+      <c r="B67" t="s">
+        <v>73</v>
+      </c>
+      <c r="C67">
+        <v>1</v>
+      </c>
+      <c r="D67">
+        <v>1</v>
+      </c>
+      <c r="E67">
+        <v>0</v>
+      </c>
+      <c r="F67">
+        <v>0</v>
+      </c>
+      <c r="G67">
+        <v>0</v>
+      </c>
+      <c r="H67">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="68" spans="1:8">
+      <c r="A68">
+        <v>66</v>
+      </c>
+      <c r="B68" t="s">
+        <v>74</v>
+      </c>
+      <c r="C68">
+        <v>1</v>
+      </c>
+      <c r="D68">
+        <v>0</v>
+      </c>
+      <c r="E68">
+        <v>0</v>
+      </c>
+      <c r="F68">
+        <v>0</v>
+      </c>
+      <c r="G68">
+        <v>0</v>
+      </c>
+      <c r="H68">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="69" spans="1:8">
+      <c r="A69">
+        <v>67</v>
+      </c>
+      <c r="B69" t="s">
+        <v>75</v>
+      </c>
+      <c r="C69">
+        <v>1</v>
+      </c>
+      <c r="D69">
+        <v>0</v>
+      </c>
+      <c r="E69">
+        <v>0</v>
+      </c>
+      <c r="F69">
+        <v>0</v>
+      </c>
+      <c r="G69">
+        <v>0</v>
+      </c>
+      <c r="H69">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="70" spans="1:8">
+      <c r="A70">
+        <v>68</v>
+      </c>
+      <c r="B70" t="s">
+        <v>76</v>
+      </c>
+      <c r="C70">
+        <v>1</v>
+      </c>
+      <c r="D70">
+        <v>0</v>
+      </c>
+      <c r="E70">
+        <v>0</v>
+      </c>
+      <c r="F70">
+        <v>0</v>
+      </c>
+      <c r="G70">
+        <v>0</v>
+      </c>
+      <c r="H70">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="71" spans="1:8">
+      <c r="A71">
+        <v>69</v>
+      </c>
+      <c r="B71" t="s">
+        <v>77</v>
+      </c>
+      <c r="C71">
+        <v>1</v>
+      </c>
+      <c r="D71">
+        <v>1</v>
+      </c>
+      <c r="E71">
+        <v>0</v>
+      </c>
+      <c r="F71">
+        <v>0</v>
+      </c>
+      <c r="G71">
+        <v>0</v>
+      </c>
+      <c r="H71">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="72" spans="1:8">
+      <c r="A72">
+        <v>70</v>
+      </c>
+      <c r="B72" t="s">
+        <v>78</v>
+      </c>
+      <c r="C72">
+        <v>1</v>
+      </c>
+      <c r="D72">
+        <v>0</v>
+      </c>
+      <c r="E72">
+        <v>1</v>
+      </c>
+      <c r="F72">
+        <v>0</v>
+      </c>
+      <c r="G72">
+        <v>0</v>
+      </c>
+      <c r="H72">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="73" spans="1:8">
+      <c r="A73">
+        <v>71</v>
+      </c>
+      <c r="B73" t="s">
+        <v>79</v>
+      </c>
+      <c r="C73">
+        <v>1</v>
+      </c>
+      <c r="D73">
+        <v>0</v>
+      </c>
+      <c r="E73">
+        <v>0</v>
+      </c>
+      <c r="F73">
+        <v>0</v>
+      </c>
+      <c r="G73">
+        <v>1</v>
+      </c>
+      <c r="H73">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="74" spans="1:8">
+      <c r="A74">
+        <v>72</v>
+      </c>
+      <c r="B74" t="s">
+        <v>80</v>
+      </c>
+      <c r="C74">
+        <v>1</v>
+      </c>
+      <c r="D74">
+        <v>0</v>
+      </c>
+      <c r="E74">
+        <v>0</v>
+      </c>
+      <c r="F74">
+        <v>0</v>
+      </c>
+      <c r="G74">
+        <v>0</v>
+      </c>
+      <c r="H74">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="75" spans="1:8">
+      <c r="A75">
+        <v>73</v>
+      </c>
+      <c r="B75" t="s">
+        <v>81</v>
+      </c>
+      <c r="C75">
+        <v>1</v>
+      </c>
+      <c r="D75">
+        <v>0</v>
+      </c>
+      <c r="E75">
+        <v>1</v>
+      </c>
+      <c r="F75">
+        <v>0</v>
+      </c>
+      <c r="G75">
+        <v>0</v>
+      </c>
+      <c r="H75">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="76" spans="1:8">
+      <c r="A76">
+        <v>74</v>
+      </c>
+      <c r="B76" t="s">
+        <v>82</v>
+      </c>
+      <c r="C76">
+        <v>1</v>
+      </c>
+      <c r="D76">
+        <v>0</v>
+      </c>
+      <c r="E76">
+        <v>0</v>
+      </c>
+      <c r="F76">
+        <v>0</v>
+      </c>
+      <c r="G76">
+        <v>1</v>
+      </c>
+      <c r="H76">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="77" spans="1:8">
+      <c r="A77">
+        <v>75</v>
+      </c>
+      <c r="B77" t="s">
+        <v>83</v>
+      </c>
+      <c r="C77">
+        <v>1</v>
+      </c>
+      <c r="D77">
+        <v>0</v>
+      </c>
+      <c r="E77">
+        <v>1</v>
+      </c>
+      <c r="F77">
+        <v>0</v>
+      </c>
+      <c r="G77">
+        <v>0</v>
+      </c>
+      <c r="H77">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="78" spans="1:8">
+      <c r="A78">
+        <v>76</v>
+      </c>
+      <c r="B78" t="s">
+        <v>84</v>
+      </c>
+      <c r="C78">
+        <v>1</v>
+      </c>
+      <c r="D78">
+        <v>0</v>
+      </c>
+      <c r="E78">
+        <v>0</v>
+      </c>
+      <c r="F78">
+        <v>0</v>
+      </c>
+      <c r="G78">
+        <v>0</v>
+      </c>
+      <c r="H78">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="79" spans="1:8">
+      <c r="A79">
+        <v>77</v>
+      </c>
+      <c r="B79" t="s">
+        <v>85</v>
+      </c>
+      <c r="C79">
+        <v>1</v>
+      </c>
+      <c r="D79">
+        <v>0</v>
+      </c>
+      <c r="E79">
+        <v>0</v>
+      </c>
+      <c r="F79">
+        <v>0</v>
+      </c>
+      <c r="G79">
+        <v>1</v>
+      </c>
+      <c r="H79">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="80" spans="1:8">
+      <c r="A80">
+        <v>78</v>
+      </c>
+      <c r="B80" t="s">
+        <v>86</v>
+      </c>
+      <c r="C80">
+        <v>1</v>
+      </c>
+      <c r="D80">
+        <v>0</v>
+      </c>
+      <c r="E80">
+        <v>0</v>
+      </c>
+      <c r="F80">
+        <v>0</v>
+      </c>
+      <c r="G80">
+        <v>0</v>
+      </c>
+      <c r="H80">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="81" spans="1:8">
+      <c r="A81">
+        <v>79</v>
+      </c>
+      <c r="B81" t="s">
+        <v>87</v>
+      </c>
+      <c r="C81">
+        <v>1</v>
+      </c>
+      <c r="D81">
+        <v>0</v>
+      </c>
+      <c r="E81">
+        <v>0</v>
+      </c>
+      <c r="F81">
+        <v>1</v>
+      </c>
+      <c r="G81">
+        <v>0</v>
+      </c>
+      <c r="H81">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="82" spans="1:8">
+      <c r="A82">
+        <v>80</v>
+      </c>
+      <c r="B82" t="s">
+        <v>88</v>
+      </c>
+      <c r="C82">
+        <v>1</v>
+      </c>
+      <c r="D82">
+        <v>0</v>
+      </c>
+      <c r="E82">
+        <v>0</v>
+      </c>
+      <c r="F82">
+        <v>0</v>
+      </c>
+      <c r="G82">
+        <v>0</v>
+      </c>
+      <c r="H82">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="83" spans="1:8">
+      <c r="A83">
+        <v>81</v>
+      </c>
+      <c r="B83" t="s">
+        <v>89</v>
+      </c>
+      <c r="C83">
+        <v>1</v>
+      </c>
+      <c r="D83">
+        <v>0</v>
+      </c>
+      <c r="E83">
+        <v>1</v>
+      </c>
+      <c r="F83">
+        <v>0</v>
+      </c>
+      <c r="G83">
+        <v>0</v>
+      </c>
+      <c r="H83">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="84" spans="1:8">
+      <c r="A84">
+        <v>82</v>
+      </c>
+      <c r="B84" t="s">
+        <v>90</v>
+      </c>
+      <c r="C84">
+        <v>1</v>
+      </c>
+      <c r="D84">
+        <v>0</v>
+      </c>
+      <c r="E84">
+        <v>0</v>
+      </c>
+      <c r="F84">
+        <v>0</v>
+      </c>
+      <c r="G84">
+        <v>0</v>
+      </c>
+      <c r="H84">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="85" spans="1:8">
+      <c r="A85">
+        <v>83</v>
+      </c>
+      <c r="B85" t="s">
+        <v>91</v>
+      </c>
+      <c r="C85">
+        <v>1</v>
+      </c>
+      <c r="D85">
+        <v>0</v>
+      </c>
+      <c r="E85">
+        <v>0</v>
+      </c>
+      <c r="F85">
+        <v>1</v>
+      </c>
+      <c r="G85">
+        <v>0</v>
+      </c>
+      <c r="H85">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="86" spans="1:8">
+      <c r="A86">
+        <v>84</v>
+      </c>
+      <c r="B86" t="s">
+        <v>92</v>
+      </c>
+      <c r="C86">
+        <v>1</v>
+      </c>
+      <c r="D86">
+        <v>0</v>
+      </c>
+      <c r="E86">
+        <v>1</v>
+      </c>
+      <c r="F86">
+        <v>0</v>
+      </c>
+      <c r="G86">
+        <v>0</v>
+      </c>
+      <c r="H86">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="87" spans="1:8">
+      <c r="A87">
+        <v>85</v>
+      </c>
+      <c r="B87" t="s">
+        <v>93</v>
+      </c>
+      <c r="C87">
+        <v>1</v>
+      </c>
+      <c r="D87">
+        <v>0</v>
+      </c>
+      <c r="E87">
+        <v>1</v>
+      </c>
+      <c r="F87">
+        <v>0</v>
+      </c>
+      <c r="G87">
+        <v>0</v>
+      </c>
+      <c r="H87">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="88" spans="1:8">
+      <c r="A88">
+        <v>86</v>
+      </c>
+      <c r="B88" t="s">
+        <v>94</v>
+      </c>
+      <c r="C88">
+        <v>1</v>
+      </c>
+      <c r="D88">
+        <v>0</v>
+      </c>
+      <c r="E88">
+        <v>1</v>
+      </c>
+      <c r="F88">
+        <v>0</v>
+      </c>
+      <c r="G88">
+        <v>0</v>
+      </c>
+      <c r="H88">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="89" spans="1:8">
+      <c r="A89">
+        <v>87</v>
+      </c>
+      <c r="B89" t="s">
+        <v>95</v>
+      </c>
+      <c r="C89">
+        <v>1</v>
+      </c>
+      <c r="D89">
+        <v>0</v>
+      </c>
+      <c r="E89">
+        <v>0</v>
+      </c>
+      <c r="F89">
+        <v>1</v>
+      </c>
+      <c r="G89">
+        <v>0</v>
+      </c>
+      <c r="H89">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="90" spans="1:8">
+      <c r="A90">
+        <v>88</v>
+      </c>
+      <c r="B90" t="s">
+        <v>96</v>
+      </c>
+      <c r="C90">
+        <v>1</v>
+      </c>
+      <c r="D90">
+        <v>0</v>
+      </c>
+      <c r="E90">
+        <v>0</v>
+      </c>
+      <c r="F90">
+        <v>0</v>
+      </c>
+      <c r="G90">
+        <v>0</v>
+      </c>
+      <c r="H90">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="91" spans="1:8">
+      <c r="A91">
+        <v>89</v>
+      </c>
+      <c r="B91" t="s">
+        <v>97</v>
+      </c>
+      <c r="C91">
+        <v>1</v>
+      </c>
+      <c r="D91">
+        <v>1</v>
+      </c>
+      <c r="E91">
+        <v>0</v>
+      </c>
+      <c r="F91">
+        <v>0</v>
+      </c>
+      <c r="G91">
+        <v>0</v>
+      </c>
+      <c r="H91">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="92" spans="1:8">
+      <c r="A92">
+        <v>90</v>
+      </c>
+      <c r="B92" t="s">
+        <v>98</v>
+      </c>
+      <c r="C92">
+        <v>1</v>
+      </c>
+      <c r="D92">
+        <v>0</v>
+      </c>
+      <c r="E92">
+        <v>0</v>
+      </c>
+      <c r="F92">
+        <v>0</v>
+      </c>
+      <c r="G92">
+        <v>1</v>
+      </c>
+      <c r="H92">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="93" spans="1:8">
+      <c r="A93">
+        <v>91</v>
+      </c>
+      <c r="B93" t="s">
+        <v>99</v>
+      </c>
+      <c r="C93">
+        <v>1</v>
+      </c>
+      <c r="D93">
+        <v>0</v>
+      </c>
+      <c r="E93">
+        <v>1</v>
+      </c>
+      <c r="F93">
+        <v>0</v>
+      </c>
+      <c r="G93">
+        <v>0</v>
+      </c>
+      <c r="H93">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="94" spans="1:8">
+      <c r="A94">
+        <v>92</v>
+      </c>
+      <c r="B94" t="s">
+        <v>100</v>
+      </c>
+      <c r="C94">
+        <v>1</v>
+      </c>
+      <c r="D94">
+        <v>0</v>
+      </c>
+      <c r="E94">
+        <v>1</v>
+      </c>
+      <c r="F94">
+        <v>0</v>
+      </c>
+      <c r="G94">
+        <v>0</v>
+      </c>
+      <c r="H94">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="95" spans="1:8">
+      <c r="A95">
+        <v>93</v>
+      </c>
+      <c r="B95" t="s">
+        <v>101</v>
+      </c>
+      <c r="C95">
+        <v>1</v>
+      </c>
+      <c r="D95">
+        <v>0</v>
+      </c>
+      <c r="E95">
+        <v>0</v>
+      </c>
+      <c r="F95">
+        <v>0</v>
+      </c>
+      <c r="G95">
+        <v>1</v>
+      </c>
+      <c r="H95">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="96" spans="1:8">
+      <c r="A96">
+        <v>94</v>
+      </c>
+      <c r="B96" t="s">
+        <v>102</v>
+      </c>
+      <c r="C96">
+        <v>1</v>
+      </c>
+      <c r="D96">
+        <v>0</v>
+      </c>
+      <c r="E96">
+        <v>1</v>
+      </c>
+      <c r="F96">
+        <v>0</v>
+      </c>
+      <c r="G96">
+        <v>0</v>
+      </c>
+      <c r="H96">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="97" spans="1:8">
+      <c r="A97">
+        <v>95</v>
+      </c>
+      <c r="B97" t="s">
+        <v>103</v>
+      </c>
+      <c r="C97">
+        <v>1</v>
+      </c>
+      <c r="D97">
+        <v>0</v>
+      </c>
+      <c r="E97">
+        <v>1</v>
+      </c>
+      <c r="F97">
+        <v>0</v>
+      </c>
+      <c r="G97">
+        <v>0</v>
+      </c>
+      <c r="H97">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="98" spans="1:8">
+      <c r="A98">
+        <v>96</v>
+      </c>
+      <c r="B98" t="s">
+        <v>104</v>
+      </c>
+      <c r="C98">
+        <v>1</v>
+      </c>
+      <c r="D98">
+        <v>0</v>
+      </c>
+      <c r="E98">
+        <v>0</v>
+      </c>
+      <c r="F98">
+        <v>0</v>
+      </c>
+      <c r="G98">
+        <v>0</v>
+      </c>
+      <c r="H98">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="99" spans="1:8">
+      <c r="A99">
+        <v>97</v>
+      </c>
+      <c r="B99" t="s">
+        <v>105</v>
+      </c>
+      <c r="C99">
+        <v>1</v>
+      </c>
+      <c r="D99">
+        <v>0</v>
+      </c>
+      <c r="E99">
+        <v>1</v>
+      </c>
+      <c r="F99">
+        <v>0</v>
+      </c>
+      <c r="G99">
+        <v>0</v>
+      </c>
+      <c r="H99">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="100" spans="1:8">
+      <c r="A100">
+        <v>98</v>
+      </c>
+      <c r="B100" t="s">
+        <v>106</v>
+      </c>
+      <c r="C100">
+        <v>1</v>
+      </c>
+      <c r="D100">
+        <v>0</v>
+      </c>
+      <c r="E100">
+        <v>1</v>
+      </c>
+      <c r="F100">
+        <v>0</v>
+      </c>
+      <c r="G100">
+        <v>0</v>
+      </c>
+      <c r="H100">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="101" spans="1:8">
+      <c r="A101">
+        <v>99</v>
+      </c>
+      <c r="B101" t="s">
+        <v>107</v>
+      </c>
+      <c r="C101">
+        <v>1</v>
+      </c>
+      <c r="D101">
+        <v>1</v>
+      </c>
+      <c r="E101">
+        <v>0</v>
+      </c>
+      <c r="F101">
+        <v>0</v>
+      </c>
+      <c r="G101">
+        <v>0</v>
+      </c>
+      <c r="H101">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="102" spans="1:8">
+      <c r="A102">
+        <v>100</v>
+      </c>
+      <c r="B102" t="s">
+        <v>108</v>
+      </c>
+      <c r="C102">
+        <v>1</v>
+      </c>
+      <c r="D102">
+        <v>0</v>
+      </c>
+      <c r="E102">
+        <v>1</v>
+      </c>
+      <c r="F102">
+        <v>0</v>
+      </c>
+      <c r="G102">
+        <v>0</v>
+      </c>
+      <c r="H102">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="103" spans="1:8">
+      <c r="A103">
+        <v>101</v>
+      </c>
+      <c r="B103" t="s">
+        <v>109</v>
+      </c>
+      <c r="C103">
+        <v>1</v>
+      </c>
+      <c r="D103">
+        <v>0</v>
+      </c>
+      <c r="E103">
+        <v>0</v>
+      </c>
+      <c r="F103">
+        <v>1</v>
+      </c>
+      <c r="G103">
+        <v>0</v>
+      </c>
+      <c r="H103">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="104" spans="1:8">
+      <c r="A104">
+        <v>102</v>
+      </c>
+      <c r="B104" t="s">
+        <v>110</v>
+      </c>
+      <c r="C104">
+        <v>1</v>
+      </c>
+      <c r="D104">
+        <v>0</v>
+      </c>
+      <c r="E104">
+        <v>0</v>
+      </c>
+      <c r="F104">
+        <v>0</v>
+      </c>
+      <c r="G104">
+        <v>0</v>
+      </c>
+      <c r="H104">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="105" spans="1:8">
+      <c r="A105">
+        <v>103</v>
+      </c>
+      <c r="B105" t="s">
+        <v>111</v>
+      </c>
+      <c r="C105">
+        <v>1</v>
+      </c>
+      <c r="D105">
+        <v>0</v>
+      </c>
+      <c r="E105">
+        <v>0</v>
+      </c>
+      <c r="F105">
+        <v>1</v>
+      </c>
+      <c r="G105">
+        <v>0</v>
+      </c>
+      <c r="H105">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="106" spans="1:8">
+      <c r="A106">
+        <v>104</v>
+      </c>
+      <c r="B106" t="s">
+        <v>112</v>
+      </c>
+      <c r="C106">
+        <v>1</v>
+      </c>
+      <c r="D106">
+        <v>0</v>
+      </c>
+      <c r="E106">
+        <v>0</v>
+      </c>
+      <c r="F106">
+        <v>0</v>
+      </c>
+      <c r="G106">
+        <v>0</v>
+      </c>
+      <c r="H106">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="107" spans="1:8">
+      <c r="A107">
+        <v>105</v>
+      </c>
+      <c r="B107" t="s">
+        <v>113</v>
+      </c>
+      <c r="C107">
+        <v>1</v>
+      </c>
+      <c r="D107">
+        <v>0</v>
+      </c>
+      <c r="E107">
+        <v>0</v>
+      </c>
+      <c r="F107">
+        <v>0</v>
+      </c>
+      <c r="G107">
+        <v>0</v>
+      </c>
+      <c r="H107">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="108" spans="1:8">
+      <c r="A108">
+        <v>106</v>
+      </c>
+      <c r="B108" t="s">
+        <v>114</v>
+      </c>
+      <c r="C108">
+        <v>1</v>
+      </c>
+      <c r="D108">
+        <v>1</v>
+      </c>
+      <c r="E108">
+        <v>0</v>
+      </c>
+      <c r="F108">
+        <v>0</v>
+      </c>
+      <c r="G108">
+        <v>0</v>
+      </c>
+      <c r="H108">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="109" spans="1:8">
+      <c r="A109">
+        <v>107</v>
+      </c>
+      <c r="B109" t="s">
+        <v>115</v>
+      </c>
+      <c r="C109">
+        <v>1</v>
+      </c>
+      <c r="D109">
+        <v>0</v>
+      </c>
+      <c r="E109">
+        <v>1</v>
+      </c>
+      <c r="F109">
+        <v>0</v>
+      </c>
+      <c r="G109">
+        <v>0</v>
+      </c>
+      <c r="H109">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="110" spans="1:8">
+      <c r="A110">
+        <v>108</v>
+      </c>
+      <c r="B110" t="s">
+        <v>116</v>
+      </c>
+      <c r="C110">
+        <v>1</v>
+      </c>
+      <c r="D110">
+        <v>0</v>
+      </c>
+      <c r="E110">
+        <v>1</v>
+      </c>
+      <c r="F110">
+        <v>0</v>
+      </c>
+      <c r="G110">
+        <v>0</v>
+      </c>
+      <c r="H110">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="111" spans="1:8">
+      <c r="A111">
+        <v>109</v>
+      </c>
+      <c r="B111" t="s">
+        <v>117</v>
+      </c>
+      <c r="C111">
+        <v>1</v>
+      </c>
+      <c r="D111">
+        <v>0</v>
+      </c>
+      <c r="E111">
+        <v>0</v>
+      </c>
+      <c r="F111">
+        <v>0</v>
+      </c>
+      <c r="G111">
+        <v>1</v>
+      </c>
+      <c r="H111">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="112" spans="1:8">
+      <c r="A112">
+        <v>110</v>
+      </c>
+      <c r="B112" t="s">
+        <v>118</v>
+      </c>
+      <c r="C112">
+        <v>1</v>
+      </c>
+      <c r="D112">
+        <v>1</v>
+      </c>
+      <c r="E112">
+        <v>0</v>
+      </c>
+      <c r="F112">
+        <v>0</v>
+      </c>
+      <c r="G112">
+        <v>0</v>
+      </c>
+      <c r="H112">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="113" spans="1:8">
+      <c r="A113">
+        <v>111</v>
+      </c>
+      <c r="B113" t="s">
+        <v>119</v>
+      </c>
+      <c r="C113">
+        <v>1</v>
+      </c>
+      <c r="D113">
+        <v>1</v>
+      </c>
+      <c r="E113">
+        <v>0</v>
+      </c>
+      <c r="F113">
+        <v>0</v>
+      </c>
+      <c r="G113">
+        <v>0</v>
+      </c>
+      <c r="H113">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="114" spans="1:8">
+      <c r="A114">
+        <v>112</v>
+      </c>
+      <c r="B114" t="s">
+        <v>120</v>
+      </c>
+      <c r="C114">
+        <v>1</v>
+      </c>
+      <c r="D114">
+        <v>1</v>
+      </c>
+      <c r="E114">
+        <v>0</v>
+      </c>
+      <c r="F114">
+        <v>0</v>
+      </c>
+      <c r="G114">
+        <v>0</v>
+      </c>
+      <c r="H114">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="115" spans="1:8">
+      <c r="A115">
+        <v>113</v>
+      </c>
+      <c r="B115" t="s">
+        <v>121</v>
+      </c>
+      <c r="C115">
+        <v>1</v>
+      </c>
+      <c r="D115">
+        <v>1</v>
+      </c>
+      <c r="E115">
+        <v>0</v>
+      </c>
+      <c r="F115">
+        <v>0</v>
+      </c>
+      <c r="G115">
+        <v>0</v>
+      </c>
+      <c r="H115">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="116" spans="1:8">
+      <c r="A116">
+        <v>114</v>
+      </c>
+      <c r="B116" t="s">
+        <v>122</v>
+      </c>
+      <c r="C116">
+        <v>1</v>
+      </c>
+      <c r="D116">
+        <v>0</v>
+      </c>
+      <c r="E116">
+        <v>0</v>
+      </c>
+      <c r="F116">
+        <v>0</v>
+      </c>
+      <c r="G116">
+        <v>0</v>
+      </c>
+      <c r="H116">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="117" spans="1:8">
+      <c r="A117">
+        <v>115</v>
+      </c>
+      <c r="B117" t="s">
+        <v>123</v>
+      </c>
+      <c r="C117">
+        <v>1</v>
+      </c>
+      <c r="D117">
+        <v>1</v>
+      </c>
+      <c r="E117">
+        <v>0</v>
+      </c>
+      <c r="F117">
+        <v>0</v>
+      </c>
+      <c r="G117">
+        <v>0</v>
+      </c>
+      <c r="H117">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="118" spans="1:8">
+      <c r="A118">
+        <v>116</v>
+      </c>
+      <c r="B118" t="s">
+        <v>124</v>
+      </c>
+      <c r="C118">
+        <v>1</v>
+      </c>
+      <c r="D118">
+        <v>0</v>
+      </c>
+      <c r="E118">
+        <v>0</v>
+      </c>
+      <c r="F118">
+        <v>1</v>
+      </c>
+      <c r="G118">
+        <v>0</v>
+      </c>
+      <c r="H118">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="119" spans="1:8">
+      <c r="A119">
+        <v>117</v>
+      </c>
+      <c r="B119" t="s">
+        <v>125</v>
+      </c>
+      <c r="C119">
+        <v>1</v>
+      </c>
+      <c r="D119">
+        <v>1</v>
+      </c>
+      <c r="E119">
+        <v>0</v>
+      </c>
+      <c r="F119">
+        <v>0</v>
+      </c>
+      <c r="G119">
+        <v>0</v>
+      </c>
+      <c r="H119">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="120" spans="1:8">
+      <c r="A120">
+        <v>118</v>
+      </c>
+      <c r="B120" t="s">
+        <v>126</v>
+      </c>
+      <c r="C120">
+        <v>1</v>
+      </c>
+      <c r="D120">
+        <v>0</v>
+      </c>
+      <c r="E120">
+        <v>0</v>
+      </c>
+      <c r="F120">
+        <v>0</v>
+      </c>
+      <c r="G120">
+        <v>0</v>
+      </c>
+      <c r="H120">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="121" spans="1:8">
+      <c r="A121">
+        <v>119</v>
+      </c>
+      <c r="B121" t="s">
+        <v>127</v>
+      </c>
+      <c r="C121">
+        <v>1</v>
+      </c>
+      <c r="D121">
+        <v>0</v>
+      </c>
+      <c r="E121">
+        <v>0</v>
+      </c>
+      <c r="F121">
+        <v>1</v>
+      </c>
+      <c r="G121">
+        <v>0</v>
+      </c>
+      <c r="H121">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="122" spans="1:8">
+      <c r="A122">
+        <v>120</v>
+      </c>
+      <c r="B122" t="s">
+        <v>128</v>
+      </c>
+      <c r="C122">
+        <v>1</v>
+      </c>
+      <c r="D122">
+        <v>0</v>
+      </c>
+      <c r="E122">
+        <v>0</v>
+      </c>
+      <c r="F122">
+        <v>1</v>
+      </c>
+      <c r="G122">
+        <v>0</v>
+      </c>
+      <c r="H122">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="123" spans="1:8">
+      <c r="A123">
+        <v>121</v>
+      </c>
+      <c r="B123" t="s">
+        <v>129</v>
+      </c>
+      <c r="C123">
+        <v>1</v>
+      </c>
+      <c r="D123">
+        <v>0</v>
+      </c>
+      <c r="E123">
+        <v>1</v>
+      </c>
+      <c r="F123">
+        <v>0</v>
+      </c>
+      <c r="G123">
+        <v>0</v>
+      </c>
+      <c r="H123">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="124" spans="1:8">
+      <c r="A124">
+        <v>122</v>
+      </c>
+      <c r="B124" t="s">
+        <v>130</v>
+      </c>
+      <c r="C124">
+        <v>1</v>
+      </c>
+      <c r="D124">
+        <v>0</v>
+      </c>
+      <c r="E124">
+        <v>0</v>
+      </c>
+      <c r="F124">
+        <v>0</v>
+      </c>
+      <c r="G124">
+        <v>0</v>
+      </c>
+      <c r="H124">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="125" spans="1:8">
+      <c r="A125">
+        <v>123</v>
+      </c>
+      <c r="B125" t="s">
+        <v>131</v>
+      </c>
+      <c r="C125">
+        <v>1</v>
+      </c>
+      <c r="D125">
+        <v>0</v>
+      </c>
+      <c r="E125">
+        <v>0</v>
+      </c>
+      <c r="F125">
+        <v>0</v>
+      </c>
+      <c r="G125">
+        <v>0</v>
+      </c>
+      <c r="H125">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="126" spans="1:8">
+      <c r="A126">
+        <v>124</v>
+      </c>
+      <c r="B126" t="s">
+        <v>132</v>
+      </c>
+      <c r="C126">
+        <v>1</v>
+      </c>
+      <c r="D126">
+        <v>0</v>
+      </c>
+      <c r="E126">
+        <v>0</v>
+      </c>
+      <c r="F126">
+        <v>0</v>
+      </c>
+      <c r="G126">
+        <v>1</v>
+      </c>
+      <c r="H126">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="127" spans="1:8">
+      <c r="A127">
+        <v>125</v>
+      </c>
+      <c r="B127" t="s">
+        <v>133</v>
+      </c>
+      <c r="C127">
+        <v>1</v>
+      </c>
+      <c r="D127">
+        <v>0</v>
+      </c>
+      <c r="E127">
+        <v>0</v>
+      </c>
+      <c r="F127">
+        <v>1</v>
+      </c>
+      <c r="G127">
+        <v>0</v>
+      </c>
+      <c r="H127">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="128" spans="1:8">
+      <c r="A128">
+        <v>126</v>
+      </c>
+      <c r="B128" t="s">
+        <v>134</v>
+      </c>
+      <c r="C128">
+        <v>1</v>
+      </c>
+      <c r="D128">
+        <v>0</v>
+      </c>
+      <c r="E128">
+        <v>0</v>
+      </c>
+      <c r="F128">
+        <v>1</v>
+      </c>
+      <c r="G128">
+        <v>0</v>
+      </c>
+      <c r="H128">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="129" spans="1:8">
+      <c r="A129">
+        <v>127</v>
+      </c>
+      <c r="B129" t="s">
+        <v>135</v>
+      </c>
+      <c r="C129">
+        <v>1</v>
+      </c>
+      <c r="D129">
+        <v>0</v>
+      </c>
+      <c r="E129">
+        <v>0</v>
+      </c>
+      <c r="F129">
+        <v>0</v>
+      </c>
+      <c r="G129">
+        <v>1</v>
+      </c>
+      <c r="H129">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="130" spans="1:8">
+      <c r="A130">
+        <v>128</v>
+      </c>
+      <c r="B130" t="s">
+        <v>136</v>
+      </c>
+      <c r="C130">
+        <v>1</v>
+      </c>
+      <c r="D130">
+        <v>0</v>
+      </c>
+      <c r="E130">
+        <v>1</v>
+      </c>
+      <c r="F130">
+        <v>0</v>
+      </c>
+      <c r="G130">
+        <v>0</v>
+      </c>
+      <c r="H130">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="131" spans="1:8">
+      <c r="A131">
+        <v>129</v>
+      </c>
+      <c r="B131" t="s">
+        <v>137</v>
+      </c>
+      <c r="C131">
+        <v>1</v>
+      </c>
+      <c r="D131">
+        <v>0</v>
+      </c>
+      <c r="E131">
+        <v>0</v>
+      </c>
+      <c r="F131">
+        <v>1</v>
+      </c>
+      <c r="G131">
+        <v>0</v>
+      </c>
+      <c r="H131">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="132" spans="1:8">
+      <c r="A132">
+        <v>130</v>
+      </c>
+      <c r="B132" t="s">
+        <v>138</v>
+      </c>
+      <c r="C132">
+        <v>1</v>
+      </c>
+      <c r="D132">
+        <v>0</v>
+      </c>
+      <c r="E132">
+        <v>0</v>
+      </c>
+      <c r="F132">
+        <v>1</v>
+      </c>
+      <c r="G132">
+        <v>0</v>
+      </c>
+      <c r="H132">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="133" spans="1:8">
+      <c r="A133">
+        <v>131</v>
+      </c>
+      <c r="B133" t="s">
+        <v>139</v>
+      </c>
+      <c r="C133">
+        <v>1</v>
+      </c>
+      <c r="D133">
+        <v>0</v>
+      </c>
+      <c r="E133">
+        <v>0</v>
+      </c>
+      <c r="F133">
+        <v>0</v>
+      </c>
+      <c r="G133">
+        <v>0</v>
+      </c>
+      <c r="H133">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="134" spans="1:8">
+      <c r="A134">
+        <v>132</v>
+      </c>
+      <c r="B134" t="s">
+        <v>140</v>
+      </c>
+      <c r="C134">
+        <v>1</v>
+      </c>
+      <c r="D134">
+        <v>0</v>
+      </c>
+      <c r="E134">
+        <v>0</v>
+      </c>
+      <c r="F134">
+        <v>0</v>
+      </c>
+      <c r="G134">
+        <v>0</v>
+      </c>
+      <c r="H134">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="135" spans="1:8">
+      <c r="A135">
+        <v>133</v>
+      </c>
+      <c r="B135" t="s">
+        <v>141</v>
+      </c>
+      <c r="C135">
+        <v>1</v>
+      </c>
+      <c r="D135">
+        <v>0</v>
+      </c>
+      <c r="E135">
+        <v>1</v>
+      </c>
+      <c r="F135">
+        <v>0</v>
+      </c>
+      <c r="G135">
+        <v>0</v>
+      </c>
+      <c r="H135">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="136" spans="1:8">
+      <c r="A136">
+        <v>134</v>
+      </c>
+      <c r="B136" t="s">
+        <v>142</v>
+      </c>
+      <c r="C136">
+        <v>1</v>
+      </c>
+      <c r="D136">
+        <v>0</v>
+      </c>
+      <c r="E136">
+        <v>0</v>
+      </c>
+      <c r="F136">
+        <v>0</v>
+      </c>
+      <c r="G136">
+        <v>0</v>
+      </c>
+      <c r="H136">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="137" spans="1:8">
+      <c r="A137">
+        <v>135</v>
+      </c>
+      <c r="B137" t="s">
+        <v>143</v>
+      </c>
+      <c r="C137">
+        <v>1</v>
+      </c>
+      <c r="D137">
+        <v>0</v>
+      </c>
+      <c r="E137">
+        <v>1</v>
+      </c>
+      <c r="F137">
+        <v>0</v>
+      </c>
+      <c r="G137">
+        <v>0</v>
+      </c>
+      <c r="H137">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="138" spans="1:8">
+      <c r="A138">
+        <v>136</v>
+      </c>
+      <c r="B138" t="s">
+        <v>144</v>
+      </c>
+      <c r="C138">
+        <v>1</v>
+      </c>
+      <c r="D138">
+        <v>0</v>
+      </c>
+      <c r="E138">
+        <v>0</v>
+      </c>
+      <c r="F138">
+        <v>0</v>
+      </c>
+      <c r="G138">
+        <v>1</v>
+      </c>
+      <c r="H138">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="139" spans="1:8">
+      <c r="A139">
+        <v>137</v>
+      </c>
+      <c r="B139" t="s">
+        <v>145</v>
+      </c>
+      <c r="C139">
+        <v>1</v>
+      </c>
+      <c r="D139">
+        <v>0</v>
+      </c>
+      <c r="E139">
+        <v>0</v>
+      </c>
+      <c r="F139">
+        <v>0</v>
+      </c>
+      <c r="G139">
+        <v>0</v>
+      </c>
+      <c r="H139">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="140" spans="1:8">
+      <c r="A140">
+        <v>138</v>
+      </c>
+      <c r="B140" t="s">
+        <v>146</v>
+      </c>
+      <c r="C140">
+        <v>1</v>
+      </c>
+      <c r="D140">
+        <v>0</v>
+      </c>
+      <c r="E140">
+        <v>0</v>
+      </c>
+      <c r="F140">
+        <v>1</v>
+      </c>
+      <c r="G140">
+        <v>0</v>
+      </c>
+      <c r="H140">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="141" spans="1:8">
+      <c r="A141">
+        <v>139</v>
+      </c>
+      <c r="B141" t="s">
+        <v>147</v>
+      </c>
+      <c r="C141">
+        <v>1</v>
+      </c>
+      <c r="D141">
+        <v>0</v>
+      </c>
+      <c r="E141">
+        <v>0</v>
+      </c>
+      <c r="F141">
+        <v>0</v>
+      </c>
+      <c r="G141">
+        <v>0</v>
+      </c>
+      <c r="H141">
+        <v>1</v>
       </c>
     </row>
   </sheetData>
